--- a/massive.xlsx
+++ b/massive.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,27 +432,27 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>398902</v>
+        <v>722771</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sportbox.ru</t>
+          <t>Sport24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338852</v>
+        <v>624704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sport24</t>
+          <t>Sportbox.ru</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300361</v>
+        <v>447081</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175529</v>
+        <v>304714</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146029</v>
+        <v>145819</v>
       </c>
     </row>
     <row r="6">
@@ -482,47 +482,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89154</v>
+        <v>129794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CyberSport.ru – портал о киберспорте</t>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68240</v>
+        <v>128009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>РИА Новости Спорт. Все главные новости спорта</t>
+          <t>CyberSport.ru – портал о киберспорте</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49596</v>
+        <v>119090</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41657</v>
+        <v>94522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38260</v>
+        <v>87213</v>
       </c>
     </row>
     <row r="11">
@@ -532,117 +532,117 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37407</v>
+        <v>65745</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37252</v>
+        <v>52571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+          <t>InoProSport</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33823</v>
+        <v>48286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32987</v>
+        <v>46427</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Советский спорт</t>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32076</v>
+        <v>45666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+          <t>Советский спорт</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31432</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Soccer.Ru - новости футбола, аналитика</t>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24455</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>InoProSport</t>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20831</v>
+        <v>42627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17699</v>
+        <v>33655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17116</v>
+        <v>27031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Спорт - RT на русском</t>
+          <t>valetudo.ru - новости мма ufc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10956</v>
+        <v>26735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10895</v>
+        <v>25110</v>
       </c>
     </row>
     <row r="23">
@@ -652,47 +652,47 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10862</v>
+        <v>23369</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+          <t>Спорт - RT на русском</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10715</v>
+        <v>22571</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Спорт день за днем</t>
+          <t>Федерация хоккея с мячом России</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10272</v>
+        <v>22286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ПЛЕЙМЕЙКЕР - гид в мире спорта</t>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9970</v>
+        <v>20438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+          <t>ПРАВДА.ru - Спортивный раздел</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9704</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="28">
@@ -702,27 +702,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9349</v>
+        <v>18117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+          <t>Новости ФК «Локомотив» Москва</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8916</v>
+        <v>17999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GoTennis.ru - Твой теннис!</t>
+          <t>МК-Спорт: Главные новости спорта</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8638</v>
+        <v>15239</v>
       </c>
     </row>
   </sheetData>

--- a/massive.xlsx
+++ b/massive.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сводная таблица" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Данные" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,308 +422,1741 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Чемпионат: ведущий сайт о спорте</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>722771</v>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sport24</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>624704</v>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sportbox.ru</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>447081</v>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>СПОРТ-ЭКСПРЕСС</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>304714</v>
+          <t>Спортлига</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Комсомольская правда. Спорт</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>145819</v>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sport.ru</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>129794</v>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Континентальная Хоккейная Лига (КХЛ)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>128009</v>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CyberSport.ru – портал о киберспорте</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>119090</v>
+          <t>Sportbox.ru</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>РИА Новости Спорт. Все главные новости спорта</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>94522</v>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>87213</v>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>65745</v>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>52571</v>
+          <t>Sport24</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InoProSport</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>48286</v>
+          <t>Спорт - RT на русском</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>46427</v>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>45666</v>
+          <t>Советский спорт</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Советский спорт</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>44159</v>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Футбол 24: новости футбола сегодня в России и мире</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>42958</v>
+          <t>InoProSport</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Soccer.Ru - новости футбола, аналитика</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>42627</v>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>33655</v>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>27031</v>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>valetudo.ru - новости мма ufc</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>26735</v>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>25110</v>
+          <t>МК-Спорт: Главные новости спорта</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Спортлига</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>23369</v>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Спорт - RT на русском</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>22571</v>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Федерация хоккея с мячом России</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>22286</v>
+          <t>Sport.ru</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>20438</v>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ПРАВДА.ru - Спортивный раздел</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>19256</v>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>18117</v>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Новости ФК «Локомотив» Москва</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>17999</v>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="100" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sport24</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1000404</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>805842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sportbox.ru</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>550235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>415855</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>218506</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>179613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>152426</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sport.ru</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>127567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98409</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Советский спорт</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>91807</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>73524</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>70157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>63594</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Спорт - RT на русском</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>51770</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>InoProSport</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>36683</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>35010</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Спортлига</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24452</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>МК-Спорт: Главные новости спорта</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15239</v>
+        <v>18518</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sport24</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1000404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>805842</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sportbox.ru</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>550235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>415855</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>218506</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>179613</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>152426</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sport.ru</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>127567</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>98409</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Советский спорт</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>91807</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>73524</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>70157</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>63594</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Спорт - RT на русском</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>51770</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>InoProSport</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>36683</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>35010</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Спортлига</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>24452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>20271</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>МК-Спорт: Главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>18518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sport24</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1000404</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>805842</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sportbox.ru</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>550235</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>415855</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>218506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>179613</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>152426</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sport.ru</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>127567</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>98409</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Советский спорт</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>91807</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>73524</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>70157</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>63594</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Спорт - RT на русском</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>51770</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>InoProSport</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>36683</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>35010</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Спортлига</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>24452</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>20271</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>МК-Спорт: Главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>18518</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sport24</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1000404</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>805842</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sportbox.ru</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>550235</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>415855</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>218506</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>179613</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>152426</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sport.ru</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>127567</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>98409</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Советский спорт</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>91807</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>73524</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>70157</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>63594</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Спорт - RT на русском</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>51770</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>InoProSport</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>36683</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>35010</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Спортлига</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>24452</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>20271</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>МК-Спорт: Главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>18518</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sport24</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1000404</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Чемпионат: ведущий сайт о спорте</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>805842</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Sportbox.ru</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>550235</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>СПОРТ-ЭКСПРЕСС</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>415855</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>РИА Новости Спорт. Все главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>218506</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Комсомольская правда. Спорт</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>179613</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CyberSport.ru – портал о киберспорте</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>152426</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Континентальная Хоккейная Лига (КХЛ)</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>134022</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Sport.ru</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>127567</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ЕВРО-ФУТБОЛ.ру : новости футбола, онлайн, РПЛ, Лига Чемпионов</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>98409</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Советский спорт</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>98111</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>LiveResult / Спорт Онлайн: Футбол + Хоккей + Теннис + Баскетбол</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>91807</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Футбол 24: новости футбола сегодня в России и мире</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>73524</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Хоккей на AllHockey.Ru - главная хоккейная площадка Рунета</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>70157</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>FightTime.ru - Бои без правил MMA. Все новости о смешанных единоборствах. Видео,</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Футбол на Куличках - Новости футбола, отчеты, аналитика, текстовые трансляции!</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>63594</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Спорт - RT на русском</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>51770</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>InoProSport</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Триал-Спорт. Горные лыжи, сноуборды, велосипеды, ролики, туризм.</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>43330</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Олимптека: олимпийская энциклопедия, новости спорта</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>41348</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Soccer.Ru - новости футбола, аналитика</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>36683</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Новости ФК «Локомотив» Москва</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>35010</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>РБК-Спорт: Ведущее спортивное издание для деловой аудитории</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>25168</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Журнал &amp;quot;Лыжный спорт&amp;quot;. лыжи, биатлон, бег, лыжероллеры</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>25108</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Спортлига</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>24452</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Bobsoccer.ru - эксперты о футболе, все новости футбола</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>21165</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AllBoxing.Ru - Все новости бокса и ММА</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>20271</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GoTennis.ru - Твой теннис!</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>19995</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ToFight.ru - cамые горячие новости мира единоборств</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>МК-Спорт: Главные новости спорта</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>18518</v>
       </c>
     </row>
   </sheetData>
